--- a/biology/Zoologie/Astrometis_sertulifera/Astrometis_sertulifera.xlsx
+++ b/biology/Zoologie/Astrometis_sertulifera/Astrometis_sertulifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrometis
 Astrometis sertulifera, unique représentant du genre Astrometis, est une espèce d'étoiles de mer de la famille des Asteriidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commun américain (« Fragile Rainbow Star ») vient de la coloration souvent brillante de l'espèce. Les épines sur la face supérieure peuvent être violettes, orange ou bleues avec des pointes rouges, et les pieds tubulaires ont souvent plusieurs couleurs également. L'espèce atteint 8,1 cm, et on la trouve presque toujours avec cinq bras symétriques.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se retrouve sur les côtes Pacifique des États-Unis et du Mexique, en Californie, Basse-Californie et dans le Golfe du Mexique.
 </t>
